--- a/50puzzlesStatistics.xlsx
+++ b/50puzzlesStatistics.xlsx
@@ -433,7 +433,7 @@
         <v>1505</v>
       </c>
       <c r="F2">
-        <v>9.99</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -453,7 +453,7 @@
         <v>228</v>
       </c>
       <c r="F3">
-        <v>1.02</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -473,7 +473,7 @@
         <v>228</v>
       </c>
       <c r="F4">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -493,7 +493,7 @@
         <v>228</v>
       </c>
       <c r="F5">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -513,7 +513,7 @@
         <v>228</v>
       </c>
       <c r="F6">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -533,7 +533,7 @@
         <v>1199</v>
       </c>
       <c r="F7">
-        <v>9.15</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -553,7 +553,7 @@
         <v>1199</v>
       </c>
       <c r="F8">
-        <v>7.16</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -573,7 +573,7 @@
         <v>256</v>
       </c>
       <c r="F9">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -593,7 +593,7 @@
         <v>1199</v>
       </c>
       <c r="F10">
-        <v>7.06</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -613,7 +613,7 @@
         <v>149</v>
       </c>
       <c r="F11">
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -633,7 +633,7 @@
         <v>46</v>
       </c>
       <c r="F12">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -653,7 +653,7 @@
         <v>46</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -673,7 +673,7 @@
         <v>46</v>
       </c>
       <c r="F14">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -713,7 +713,7 @@
         <v>83</v>
       </c>
       <c r="F16">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -733,7 +733,7 @@
         <v>83</v>
       </c>
       <c r="F17">
-        <v>0.23</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -753,7 +753,7 @@
         <v>42</v>
       </c>
       <c r="F18">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -773,7 +773,7 @@
         <v>67</v>
       </c>
       <c r="F19">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -793,7 +793,7 @@
         <v>547</v>
       </c>
       <c r="F20">
-        <v>2.92</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -813,7 +813,7 @@
         <v>91</v>
       </c>
       <c r="F21">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -833,7 +833,7 @@
         <v>91</v>
       </c>
       <c r="F22">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -853,7 +853,7 @@
         <v>91</v>
       </c>
       <c r="F23">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -873,7 +873,7 @@
         <v>65</v>
       </c>
       <c r="F24">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -893,7 +893,7 @@
         <v>312</v>
       </c>
       <c r="F25">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -913,7 +913,7 @@
         <v>312</v>
       </c>
       <c r="F26">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -933,7 +933,7 @@
         <v>91</v>
       </c>
       <c r="F27">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -953,7 +953,7 @@
         <v>248</v>
       </c>
       <c r="F28">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -973,7 +973,7 @@
         <v>329</v>
       </c>
       <c r="F29">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -993,7 +993,7 @@
         <v>263</v>
       </c>
       <c r="F30">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1013,7 +1013,7 @@
         <v>263</v>
       </c>
       <c r="F31">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1033,7 +1033,7 @@
         <v>263</v>
       </c>
       <c r="F32">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1053,7 +1053,7 @@
         <v>254</v>
       </c>
       <c r="F33">
-        <v>0.98</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1073,7 +1073,7 @@
         <v>289</v>
       </c>
       <c r="F34">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1093,7 +1093,7 @@
         <v>289</v>
       </c>
       <c r="F35">
-        <v>1.07</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1110,10 +1110,10 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F36">
-        <v>0.97</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1133,7 +1133,7 @@
         <v>281</v>
       </c>
       <c r="F37">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1153,7 +1153,7 @@
         <v>393</v>
       </c>
       <c r="F38">
-        <v>3.31</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1173,7 +1173,7 @@
         <v>86</v>
       </c>
       <c r="F39">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1193,7 +1193,7 @@
         <v>86</v>
       </c>
       <c r="F40">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1253,7 +1253,7 @@
         <v>195</v>
       </c>
       <c r="F43">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1273,7 +1273,7 @@
         <v>195</v>
       </c>
       <c r="F44">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1290,10 +1290,10 @@
         <v>7</v>
       </c>
       <c r="E45">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F45">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1313,7 +1313,7 @@
         <v>139</v>
       </c>
       <c r="F46">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1333,7 +1333,7 @@
         <v>207</v>
       </c>
       <c r="F47">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1353,7 +1353,7 @@
         <v>167</v>
       </c>
       <c r="F48">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1373,7 +1373,7 @@
         <v>167</v>
       </c>
       <c r="F49">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1393,7 +1393,7 @@
         <v>167</v>
       </c>
       <c r="F50">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1413,7 +1413,7 @@
         <v>163</v>
       </c>
       <c r="F51">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1433,7 +1433,7 @@
         <v>178</v>
       </c>
       <c r="F52">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1453,7 +1453,7 @@
         <v>178</v>
       </c>
       <c r="F53">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1473,7 +1473,7 @@
         <v>167</v>
       </c>
       <c r="F54">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1493,7 +1493,7 @@
         <v>174</v>
       </c>
       <c r="F55">
-        <v>0.54</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1513,7 +1513,7 @@
         <v>57</v>
       </c>
       <c r="F56">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1553,7 +1553,7 @@
         <v>19</v>
       </c>
       <c r="F58">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1573,7 +1573,7 @@
         <v>19</v>
       </c>
       <c r="F59">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1593,7 +1593,7 @@
         <v>15</v>
       </c>
       <c r="F60">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1613,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="F61">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1633,7 +1633,7 @@
         <v>30</v>
       </c>
       <c r="F62">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1653,7 +1653,7 @@
         <v>19</v>
       </c>
       <c r="F63">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1693,7 +1693,7 @@
         <v>677</v>
       </c>
       <c r="F65">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1713,7 +1713,7 @@
         <v>118</v>
       </c>
       <c r="F66">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1733,7 +1733,7 @@
         <v>118</v>
       </c>
       <c r="F67">
-        <v>0.39</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1753,7 +1753,7 @@
         <v>118</v>
       </c>
       <c r="F68">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1773,7 +1773,7 @@
         <v>65</v>
       </c>
       <c r="F69">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1793,7 +1793,7 @@
         <v>344</v>
       </c>
       <c r="F70">
-        <v>1.45</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1813,7 +1813,7 @@
         <v>344</v>
       </c>
       <c r="F71">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1833,7 +1833,7 @@
         <v>110</v>
       </c>
       <c r="F72">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1853,7 +1853,7 @@
         <v>281</v>
       </c>
       <c r="F73">
-        <v>1.27</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1873,7 +1873,7 @@
         <v>612</v>
       </c>
       <c r="F74">
-        <v>3.07</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1893,7 +1893,7 @@
         <v>75</v>
       </c>
       <c r="F75">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1913,7 +1913,7 @@
         <v>75</v>
       </c>
       <c r="F76">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1933,7 +1933,7 @@
         <v>75</v>
       </c>
       <c r="F77">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1973,7 +1973,7 @@
         <v>237</v>
       </c>
       <c r="F79">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1993,7 +1993,7 @@
         <v>237</v>
       </c>
       <c r="F80">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2013,7 +2013,7 @@
         <v>78</v>
       </c>
       <c r="F81">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2033,7 +2033,7 @@
         <v>195</v>
       </c>
       <c r="F82">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2053,7 +2053,7 @@
         <v>514</v>
       </c>
       <c r="F83">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2073,7 +2073,7 @@
         <v>514</v>
       </c>
       <c r="F84">
-        <v>2.89</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2093,7 +2093,7 @@
         <v>514</v>
       </c>
       <c r="F85">
-        <v>2.95</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2113,7 +2113,7 @@
         <v>514</v>
       </c>
       <c r="F86">
-        <v>4.39</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2133,7 +2133,7 @@
         <v>514</v>
       </c>
       <c r="F87">
-        <v>2.95</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2153,7 +2153,7 @@
         <v>514</v>
       </c>
       <c r="F88">
-        <v>2.32</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2173,7 +2173,7 @@
         <v>514</v>
       </c>
       <c r="F89">
-        <v>2.34</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2193,7 +2193,7 @@
         <v>514</v>
       </c>
       <c r="F90">
-        <v>2.58</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2213,7 +2213,7 @@
         <v>514</v>
       </c>
       <c r="F91">
-        <v>2.38</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2233,7 +2233,7 @@
         <v>484</v>
       </c>
       <c r="F92">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2253,7 +2253,7 @@
         <v>12</v>
       </c>
       <c r="F93">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2313,7 +2313,7 @@
         <v>12</v>
       </c>
       <c r="F96">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2333,7 +2333,7 @@
         <v>217</v>
       </c>
       <c r="F97">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2353,7 +2353,7 @@
         <v>217</v>
       </c>
       <c r="F98">
-        <v>0.92</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2393,7 +2393,7 @@
         <v>195</v>
       </c>
       <c r="F100">
-        <v>0.82</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2413,7 +2413,7 @@
         <v>1583</v>
       </c>
       <c r="F101">
-        <v>11.24</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2433,7 +2433,7 @@
         <v>13</v>
       </c>
       <c r="F102">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2453,7 +2453,7 @@
         <v>13</v>
       </c>
       <c r="F103">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2473,7 +2473,7 @@
         <v>13</v>
       </c>
       <c r="F104">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2493,7 +2493,7 @@
         <v>13</v>
       </c>
       <c r="F105">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2513,7 +2513,7 @@
         <v>302</v>
       </c>
       <c r="F106">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2533,7 +2533,7 @@
         <v>302</v>
       </c>
       <c r="F107">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2573,7 +2573,7 @@
         <v>203</v>
       </c>
       <c r="F109">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2593,7 +2593,7 @@
         <v>918</v>
       </c>
       <c r="F110">
-        <v>4.57</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2613,7 +2613,7 @@
         <v>51</v>
       </c>
       <c r="F111">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2633,7 +2633,7 @@
         <v>51</v>
       </c>
       <c r="F112">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2653,7 +2653,7 @@
         <v>51</v>
       </c>
       <c r="F113">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2673,7 +2673,7 @@
         <v>51</v>
       </c>
       <c r="F114">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2693,7 +2693,7 @@
         <v>810</v>
       </c>
       <c r="F115">
-        <v>4.15</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2713,7 +2713,7 @@
         <v>810</v>
       </c>
       <c r="F116">
-        <v>4.09</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2730,10 +2730,10 @@
         <v>8</v>
       </c>
       <c r="E117">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F117">
-        <v>1.87</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2753,7 +2753,7 @@
         <v>752</v>
       </c>
       <c r="F118">
-        <v>4.15</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2773,7 +2773,7 @@
         <v>431</v>
       </c>
       <c r="F119">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2793,7 +2793,7 @@
         <v>24</v>
       </c>
       <c r="F120">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2813,7 +2813,7 @@
         <v>24</v>
       </c>
       <c r="F121">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2833,7 +2833,7 @@
         <v>24</v>
       </c>
       <c r="F122">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2853,7 +2853,7 @@
         <v>21</v>
       </c>
       <c r="F123">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2873,7 +2873,7 @@
         <v>267</v>
       </c>
       <c r="F124">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2893,7 +2893,7 @@
         <v>267</v>
       </c>
       <c r="F125">
-        <v>0.93</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2913,7 +2913,7 @@
         <v>26</v>
       </c>
       <c r="F126">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2933,7 +2933,7 @@
         <v>220</v>
       </c>
       <c r="F127">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2953,7 +2953,7 @@
         <v>1492</v>
       </c>
       <c r="F128">
-        <v>9.25</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2973,7 +2973,7 @@
         <v>17</v>
       </c>
       <c r="F129">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3013,7 +3013,7 @@
         <v>17</v>
       </c>
       <c r="F131">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3033,7 +3033,7 @@
         <v>18</v>
       </c>
       <c r="F132">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3053,7 +3053,7 @@
         <v>740</v>
       </c>
       <c r="F133">
-        <v>4.51</v>
+        <v>6.26</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3073,7 +3073,7 @@
         <v>740</v>
       </c>
       <c r="F134">
-        <v>4.58</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3093,7 +3093,7 @@
         <v>17</v>
       </c>
       <c r="F135">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3113,7 +3113,7 @@
         <v>692</v>
       </c>
       <c r="F136">
-        <v>4.57</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3133,7 +3133,7 @@
         <v>98</v>
       </c>
       <c r="F137">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3153,7 +3153,7 @@
         <v>17</v>
       </c>
       <c r="F138">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3173,7 +3173,7 @@
         <v>17</v>
       </c>
       <c r="F139">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3193,7 +3193,7 @@
         <v>17</v>
       </c>
       <c r="F140">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3213,7 +3213,7 @@
         <v>17</v>
       </c>
       <c r="F141">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3233,7 +3233,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3253,7 +3253,7 @@
         <v>70</v>
       </c>
       <c r="F143">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3273,7 +3273,7 @@
         <v>17</v>
       </c>
       <c r="F144">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3293,7 +3293,7 @@
         <v>63</v>
       </c>
       <c r="F145">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3313,7 +3313,7 @@
         <v>155</v>
       </c>
       <c r="F146">
-        <v>0.48</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3333,7 +3333,7 @@
         <v>25</v>
       </c>
       <c r="F147">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3353,7 +3353,7 @@
         <v>25</v>
       </c>
       <c r="F148">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3373,7 +3373,7 @@
         <v>25</v>
       </c>
       <c r="F149">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3393,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="F150">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3413,7 +3413,7 @@
         <v>133</v>
       </c>
       <c r="F151">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3433,7 +3433,7 @@
         <v>133</v>
       </c>
       <c r="F152">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3453,7 +3453,7 @@
         <v>33</v>
       </c>
       <c r="F153">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3473,7 +3473,7 @@
         <v>108</v>
       </c>
       <c r="F154">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3493,7 +3493,7 @@
         <v>358</v>
       </c>
       <c r="F155">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3513,7 +3513,7 @@
         <v>18</v>
       </c>
       <c r="F156">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3533,7 +3533,7 @@
         <v>18</v>
       </c>
       <c r="F157">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3553,7 +3553,7 @@
         <v>18</v>
       </c>
       <c r="F158">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3573,7 +3573,7 @@
         <v>18</v>
       </c>
       <c r="F159">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3593,7 +3593,7 @@
         <v>184</v>
       </c>
       <c r="F160">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3633,7 +3633,7 @@
         <v>19</v>
       </c>
       <c r="F162">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3653,7 +3653,7 @@
         <v>168</v>
       </c>
       <c r="F163">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3673,7 +3673,7 @@
         <v>291</v>
       </c>
       <c r="F164">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3693,7 +3693,7 @@
         <v>15</v>
       </c>
       <c r="F165">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3713,7 +3713,7 @@
         <v>15</v>
       </c>
       <c r="F166">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3733,7 +3733,7 @@
         <v>15</v>
       </c>
       <c r="F167">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3753,7 +3753,7 @@
         <v>15</v>
       </c>
       <c r="F168">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3773,7 +3773,7 @@
         <v>165</v>
       </c>
       <c r="F169">
-        <v>0.59</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3793,7 +3793,7 @@
         <v>165</v>
       </c>
       <c r="F170">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3813,7 +3813,7 @@
         <v>16</v>
       </c>
       <c r="F171">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3833,7 +3833,7 @@
         <v>148</v>
       </c>
       <c r="F172">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3853,7 +3853,7 @@
         <v>141</v>
       </c>
       <c r="F173">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3873,7 +3873,7 @@
         <v>39</v>
       </c>
       <c r="F174">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3893,7 +3893,7 @@
         <v>39</v>
       </c>
       <c r="F175">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3913,7 +3913,7 @@
         <v>39</v>
       </c>
       <c r="F176">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3933,7 +3933,7 @@
         <v>36</v>
       </c>
       <c r="F177">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3953,7 +3953,7 @@
         <v>124</v>
       </c>
       <c r="F178">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3973,7 +3973,7 @@
         <v>124</v>
       </c>
       <c r="F179">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4013,7 +4013,7 @@
         <v>112</v>
       </c>
       <c r="F181">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4033,7 +4033,7 @@
         <v>256</v>
       </c>
       <c r="F182">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4053,7 +4053,7 @@
         <v>23</v>
       </c>
       <c r="F183">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4073,7 +4073,7 @@
         <v>23</v>
       </c>
       <c r="F184">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4093,7 +4093,7 @@
         <v>23</v>
       </c>
       <c r="F185">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4113,7 +4113,7 @@
         <v>23</v>
       </c>
       <c r="F186">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4133,7 +4133,7 @@
         <v>164</v>
       </c>
       <c r="F187">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4153,7 +4153,7 @@
         <v>164</v>
       </c>
       <c r="F188">
-        <v>0.42</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4173,7 +4173,7 @@
         <v>23</v>
       </c>
       <c r="F189">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4193,7 +4193,7 @@
         <v>133</v>
       </c>
       <c r="F190">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4213,7 +4213,7 @@
         <v>171</v>
       </c>
       <c r="F191">
-        <v>0.52</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4233,7 +4233,7 @@
         <v>171</v>
       </c>
       <c r="F192">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4253,7 +4253,7 @@
         <v>171</v>
       </c>
       <c r="F193">
-        <v>0.51</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4273,7 +4273,7 @@
         <v>171</v>
       </c>
       <c r="F194">
-        <v>0.51</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4293,7 +4293,7 @@
         <v>171</v>
       </c>
       <c r="F195">
-        <v>0.51</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4313,7 +4313,7 @@
         <v>171</v>
       </c>
       <c r="F196">
-        <v>0.51</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4333,7 +4333,7 @@
         <v>171</v>
       </c>
       <c r="F197">
-        <v>0.51</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4353,7 +4353,7 @@
         <v>171</v>
       </c>
       <c r="F198">
-        <v>0.52</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4373,7 +4373,7 @@
         <v>171</v>
       </c>
       <c r="F199">
-        <v>0.51</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4393,7 +4393,7 @@
         <v>234</v>
       </c>
       <c r="F200">
-        <v>0.74</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4413,7 +4413,7 @@
         <v>234</v>
       </c>
       <c r="F201">
-        <v>0.9399999999999999</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4433,7 +4433,7 @@
         <v>234</v>
       </c>
       <c r="F202">
-        <v>0.9399999999999999</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4453,7 +4453,7 @@
         <v>234</v>
       </c>
       <c r="F203">
-        <v>0.93</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4473,7 +4473,7 @@
         <v>234</v>
       </c>
       <c r="F204">
-        <v>0.96</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4493,7 +4493,7 @@
         <v>234</v>
       </c>
       <c r="F205">
-        <v>0.73</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4513,7 +4513,7 @@
         <v>234</v>
       </c>
       <c r="F206">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4533,7 +4533,7 @@
         <v>234</v>
       </c>
       <c r="F207">
-        <v>0.79</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4553,7 +4553,7 @@
         <v>234</v>
       </c>
       <c r="F208">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4573,7 +4573,7 @@
         <v>231</v>
       </c>
       <c r="F209">
-        <v>0.77</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4593,7 +4593,7 @@
         <v>25</v>
       </c>
       <c r="F210">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4613,7 +4613,7 @@
         <v>25</v>
       </c>
       <c r="F211">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4633,7 +4633,7 @@
         <v>25</v>
       </c>
       <c r="F212">
-        <v>1.49</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4653,7 +4653,7 @@
         <v>25</v>
       </c>
       <c r="F213">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4673,7 +4673,7 @@
         <v>179</v>
       </c>
       <c r="F214">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4693,7 +4693,7 @@
         <v>179</v>
       </c>
       <c r="F215">
-        <v>0.57</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4710,10 +4710,10 @@
         <v>7</v>
       </c>
       <c r="E216">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F216">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4733,7 +4733,7 @@
         <v>150</v>
       </c>
       <c r="F217">
-        <v>0.48</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4753,7 +4753,7 @@
         <v>1090</v>
       </c>
       <c r="F218">
-        <v>6.22</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4813,7 +4813,7 @@
         <v>21</v>
       </c>
       <c r="F221">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4853,7 +4853,7 @@
         <v>340</v>
       </c>
       <c r="F223">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4873,7 +4873,7 @@
         <v>340</v>
       </c>
       <c r="F224">
-        <v>1.59</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4893,7 +4893,7 @@
         <v>22</v>
       </c>
       <c r="F225">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4913,7 +4913,7 @@
         <v>305</v>
       </c>
       <c r="F226">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4933,7 +4933,7 @@
         <v>453</v>
       </c>
       <c r="F227">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4953,7 +4953,7 @@
         <v>32</v>
       </c>
       <c r="F228">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4973,7 +4973,7 @@
         <v>32</v>
       </c>
       <c r="F229">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5013,7 +5013,7 @@
         <v>32</v>
       </c>
       <c r="F231">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5033,7 +5033,7 @@
         <v>216</v>
       </c>
       <c r="F232">
-        <v>0.76</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5053,7 +5053,7 @@
         <v>216</v>
       </c>
       <c r="F233">
-        <v>0.77</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5070,10 +5070,10 @@
         <v>6</v>
       </c>
       <c r="E234">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F234">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5093,7 +5093,7 @@
         <v>184</v>
       </c>
       <c r="F235">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5113,7 +5113,7 @@
         <v>531</v>
       </c>
       <c r="F236">
-        <v>2.25</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5133,7 +5133,7 @@
         <v>37</v>
       </c>
       <c r="F237">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5153,7 +5153,7 @@
         <v>37</v>
       </c>
       <c r="F238">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5173,7 +5173,7 @@
         <v>37</v>
       </c>
       <c r="F239">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5193,7 +5193,7 @@
         <v>37</v>
       </c>
       <c r="F240">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5213,7 +5213,7 @@
         <v>261</v>
       </c>
       <c r="F241">
-        <v>0.95</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5233,7 +5233,7 @@
         <v>261</v>
       </c>
       <c r="F242">
-        <v>0.9399999999999999</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5250,10 +5250,10 @@
         <v>6</v>
       </c>
       <c r="E243">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F243">
-        <v>0.13</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5273,7 +5273,7 @@
         <v>226</v>
       </c>
       <c r="F244">
-        <v>0.79</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5293,7 +5293,7 @@
         <v>165</v>
       </c>
       <c r="F245">
-        <v>0.51</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5313,7 +5313,7 @@
         <v>25</v>
       </c>
       <c r="F246">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5333,7 +5333,7 @@
         <v>25</v>
       </c>
       <c r="F247">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5353,7 +5353,7 @@
         <v>25</v>
       </c>
       <c r="F248">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5373,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="F249">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5393,7 +5393,7 @@
         <v>155</v>
       </c>
       <c r="F250">
-        <v>0.48</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5413,7 +5413,7 @@
         <v>155</v>
       </c>
       <c r="F251">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5430,10 +5430,10 @@
         <v>7</v>
       </c>
       <c r="E252">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F252">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5453,7 +5453,7 @@
         <v>129</v>
       </c>
       <c r="F253">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5473,7 +5473,7 @@
         <v>128</v>
       </c>
       <c r="F254">
-        <v>0.33</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5493,7 +5493,7 @@
         <v>30</v>
       </c>
       <c r="F255">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5513,7 +5513,7 @@
         <v>30</v>
       </c>
       <c r="F256">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5533,7 +5533,7 @@
         <v>30</v>
       </c>
       <c r="F257">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5573,7 +5573,7 @@
         <v>114</v>
       </c>
       <c r="F259">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5593,7 +5593,7 @@
         <v>114</v>
       </c>
       <c r="F260">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5613,7 +5613,7 @@
         <v>30</v>
       </c>
       <c r="F261">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5633,7 +5633,7 @@
         <v>114</v>
       </c>
       <c r="F262">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5653,7 +5653,7 @@
         <v>1660</v>
       </c>
       <c r="F263">
-        <v>10.7</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5673,7 +5673,7 @@
         <v>1105</v>
       </c>
       <c r="F264">
-        <v>7.94</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5693,7 +5693,7 @@
         <v>1105</v>
       </c>
       <c r="F265">
-        <v>6.62</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5713,7 +5713,7 @@
         <v>1105</v>
       </c>
       <c r="F266">
-        <v>6.35</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5733,7 +5733,7 @@
         <v>801</v>
       </c>
       <c r="F267">
-        <v>4.52</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5753,7 +5753,7 @@
         <v>1626</v>
       </c>
       <c r="F268">
-        <v>11.44</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5773,7 +5773,7 @@
         <v>1626</v>
       </c>
       <c r="F269">
-        <v>10.52</v>
+        <v>18.33</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5790,10 +5790,10 @@
         <v>15</v>
       </c>
       <c r="E270">
-        <v>1207</v>
+        <v>1215</v>
       </c>
       <c r="F270">
-        <v>8.31</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5813,7 +5813,7 @@
         <v>1562</v>
       </c>
       <c r="F271">
-        <v>10.21</v>
+        <v>15.09</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5833,7 +5833,7 @@
         <v>2658</v>
       </c>
       <c r="F272">
-        <v>20.59</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5853,7 +5853,7 @@
         <v>1657</v>
       </c>
       <c r="F273">
-        <v>10.94</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5873,7 +5873,7 @@
         <v>1657</v>
       </c>
       <c r="F274">
-        <v>9.44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5893,7 +5893,7 @@
         <v>1657</v>
       </c>
       <c r="F275">
-        <v>9.390000000000001</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5913,7 +5913,7 @@
         <v>1394</v>
       </c>
       <c r="F276">
-        <v>8.33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5933,7 +5933,7 @@
         <v>2608</v>
       </c>
       <c r="F277">
-        <v>22.16</v>
+        <v>35.76</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5953,7 +5953,7 @@
         <v>2608</v>
       </c>
       <c r="F278">
-        <v>20.04</v>
+        <v>35.46</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -5970,10 +5970,10 @@
         <v>15</v>
       </c>
       <c r="E279">
-        <v>1823</v>
+        <v>1851</v>
       </c>
       <c r="F279">
-        <v>11.72</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -5993,7 +5993,7 @@
         <v>2544</v>
       </c>
       <c r="F280">
-        <v>21.93</v>
+        <v>30.52</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6013,7 +6013,7 @@
         <v>1956</v>
       </c>
       <c r="F281">
-        <v>11.84</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6033,7 +6033,7 @@
         <v>1224</v>
       </c>
       <c r="F282">
-        <v>6.72</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6053,7 +6053,7 @@
         <v>1224</v>
       </c>
       <c r="F283">
-        <v>6.68</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6073,7 +6073,7 @@
         <v>1224</v>
       </c>
       <c r="F284">
-        <v>6.69</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6093,7 +6093,7 @@
         <v>1057</v>
       </c>
       <c r="F285">
-        <v>7.68</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6113,7 +6113,7 @@
         <v>1762</v>
       </c>
       <c r="F286">
-        <v>13.46</v>
+        <v>15.22</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6133,7 +6133,7 @@
         <v>1762</v>
       </c>
       <c r="F287">
-        <v>10.17</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6150,10 +6150,10 @@
         <v>15</v>
       </c>
       <c r="E288">
-        <v>1505</v>
+        <v>1517</v>
       </c>
       <c r="F288">
-        <v>8.369999999999999</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6173,7 +6173,7 @@
         <v>1723</v>
       </c>
       <c r="F289">
-        <v>10.08</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6193,7 +6193,7 @@
         <v>1304</v>
       </c>
       <c r="F290">
-        <v>8.84</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6213,7 +6213,7 @@
         <v>1304</v>
       </c>
       <c r="F291">
-        <v>8.960000000000001</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6233,7 +6233,7 @@
         <v>1304</v>
       </c>
       <c r="F292">
-        <v>8.960000000000001</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6253,7 +6253,7 @@
         <v>1304</v>
       </c>
       <c r="F293">
-        <v>8.960000000000001</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6273,7 +6273,7 @@
         <v>1304</v>
       </c>
       <c r="F294">
-        <v>11.17</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6293,7 +6293,7 @@
         <v>1304</v>
       </c>
       <c r="F295">
-        <v>8.73</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6313,7 +6313,7 @@
         <v>1304</v>
       </c>
       <c r="F296">
-        <v>7.53</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6333,7 +6333,7 @@
         <v>1304</v>
       </c>
       <c r="F297">
-        <v>8.51</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6353,7 +6353,7 @@
         <v>1304</v>
       </c>
       <c r="F298">
-        <v>7.58</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6373,7 +6373,7 @@
         <v>706</v>
       </c>
       <c r="F299">
-        <v>3.3</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6393,7 +6393,7 @@
         <v>495</v>
       </c>
       <c r="F300">
-        <v>1.83</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6413,7 +6413,7 @@
         <v>495</v>
       </c>
       <c r="F301">
-        <v>3.3</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6433,7 +6433,7 @@
         <v>495</v>
       </c>
       <c r="F302">
-        <v>1.93</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6453,7 +6453,7 @@
         <v>424</v>
       </c>
       <c r="F303">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6473,7 +6473,7 @@
         <v>692</v>
       </c>
       <c r="F304">
-        <v>3.24</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6493,7 +6493,7 @@
         <v>692</v>
       </c>
       <c r="F305">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6513,7 +6513,7 @@
         <v>495</v>
       </c>
       <c r="F306">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6533,7 +6533,7 @@
         <v>676</v>
       </c>
       <c r="F307">
-        <v>3.16</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6553,7 +6553,7 @@
         <v>1249</v>
       </c>
       <c r="F308">
-        <v>6.78</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6573,7 +6573,7 @@
         <v>645</v>
       </c>
       <c r="F309">
-        <v>3.69</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6593,7 +6593,7 @@
         <v>645</v>
       </c>
       <c r="F310">
-        <v>3.69</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6613,7 +6613,7 @@
         <v>645</v>
       </c>
       <c r="F311">
-        <v>3.68</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6633,7 +6633,7 @@
         <v>843</v>
       </c>
       <c r="F312">
-        <v>6.32</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6653,7 +6653,7 @@
         <v>1204</v>
       </c>
       <c r="F313">
-        <v>6.68</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6673,7 +6673,7 @@
         <v>1204</v>
       </c>
       <c r="F314">
-        <v>6.64</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6687,13 +6687,13 @@
         <v>11</v>
       </c>
       <c r="D315">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E315">
-        <v>967</v>
+        <v>976</v>
       </c>
       <c r="F315">
-        <v>5.09</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6713,7 +6713,7 @@
         <v>1182</v>
       </c>
       <c r="F316">
-        <v>6.64</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6733,7 +6733,7 @@
         <v>404</v>
       </c>
       <c r="F317">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6753,7 +6753,7 @@
         <v>404</v>
       </c>
       <c r="F318">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6773,7 +6773,7 @@
         <v>404</v>
       </c>
       <c r="F319">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6793,7 +6793,7 @@
         <v>404</v>
       </c>
       <c r="F320">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6813,7 +6813,7 @@
         <v>404</v>
       </c>
       <c r="F321">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -6833,7 +6833,7 @@
         <v>404</v>
       </c>
       <c r="F322">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -6853,7 +6853,7 @@
         <v>404</v>
       </c>
       <c r="F323">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -6873,7 +6873,7 @@
         <v>404</v>
       </c>
       <c r="F324">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -6893,7 +6893,7 @@
         <v>404</v>
       </c>
       <c r="F325">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -6913,7 +6913,7 @@
         <v>2119</v>
       </c>
       <c r="F326">
-        <v>13.51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -6933,7 +6933,7 @@
         <v>2119</v>
       </c>
       <c r="F327">
-        <v>12.42</v>
+        <v>15.28</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -6953,7 +6953,7 @@
         <v>2119</v>
       </c>
       <c r="F328">
-        <v>12.27</v>
+        <v>13.93</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -6973,7 +6973,7 @@
         <v>2119</v>
       </c>
       <c r="F329">
-        <v>12.47</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -6993,7 +6993,7 @@
         <v>2119</v>
       </c>
       <c r="F330">
-        <v>14.89</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7013,7 +7013,7 @@
         <v>2119</v>
       </c>
       <c r="F331">
-        <v>12.06</v>
+        <v>16.65</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7033,7 +7033,7 @@
         <v>2119</v>
       </c>
       <c r="F332">
-        <v>12.06</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7053,7 +7053,7 @@
         <v>2119</v>
       </c>
       <c r="F333">
-        <v>14.4</v>
+        <v>16.84</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7073,7 +7073,7 @@
         <v>2119</v>
       </c>
       <c r="F334">
-        <v>14.66</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7113,7 +7113,7 @@
         <v>7</v>
       </c>
       <c r="F336">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7133,7 +7133,7 @@
         <v>7</v>
       </c>
       <c r="F337">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7153,7 +7153,7 @@
         <v>7</v>
       </c>
       <c r="F338">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7173,7 +7173,7 @@
         <v>7</v>
       </c>
       <c r="F339">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7193,7 +7193,7 @@
         <v>21</v>
       </c>
       <c r="F340">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7213,7 +7213,7 @@
         <v>21</v>
       </c>
       <c r="F341">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7233,7 +7233,7 @@
         <v>7</v>
       </c>
       <c r="F342">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7253,7 +7253,7 @@
         <v>21</v>
       </c>
       <c r="F343">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7273,7 +7273,7 @@
         <v>1188</v>
       </c>
       <c r="F344">
-        <v>6.01</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7293,7 +7293,7 @@
         <v>146</v>
       </c>
       <c r="F345">
-        <v>0.55</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7313,7 +7313,7 @@
         <v>146</v>
       </c>
       <c r="F346">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7333,7 +7333,7 @@
         <v>146</v>
       </c>
       <c r="F347">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7353,7 +7353,7 @@
         <v>146</v>
       </c>
       <c r="F348">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7373,7 +7373,7 @@
         <v>854</v>
       </c>
       <c r="F349">
-        <v>4.08</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7393,7 +7393,7 @@
         <v>854</v>
       </c>
       <c r="F350">
-        <v>4.12</v>
+        <v>14.74</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7413,7 +7413,7 @@
         <v>274</v>
       </c>
       <c r="F351">
-        <v>1.02</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7433,7 +7433,7 @@
         <v>706</v>
       </c>
       <c r="F352">
-        <v>3.28</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7453,7 +7453,7 @@
         <v>1236</v>
       </c>
       <c r="F353">
-        <v>7.38</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7473,7 +7473,7 @@
         <v>135</v>
       </c>
       <c r="F354">
-        <v>0.51</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7493,7 +7493,7 @@
         <v>135</v>
       </c>
       <c r="F355">
-        <v>0.52</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7513,7 +7513,7 @@
         <v>135</v>
       </c>
       <c r="F356">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7533,7 +7533,7 @@
         <v>135</v>
       </c>
       <c r="F357">
-        <v>0.53</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7553,7 +7553,7 @@
         <v>879</v>
       </c>
       <c r="F358">
-        <v>5.21</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7573,7 +7573,7 @@
         <v>879</v>
       </c>
       <c r="F359">
-        <v>6.72</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7593,7 +7593,7 @@
         <v>241</v>
       </c>
       <c r="F360">
-        <v>0.88</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7613,7 +7613,7 @@
         <v>780</v>
       </c>
       <c r="F361">
-        <v>4.72</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7633,7 +7633,7 @@
         <v>139</v>
       </c>
       <c r="F362">
-        <v>0.48</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7653,7 +7653,7 @@
         <v>139</v>
       </c>
       <c r="F363">
-        <v>0.48</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -7673,7 +7673,7 @@
         <v>139</v>
       </c>
       <c r="F364">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7693,7 +7693,7 @@
         <v>139</v>
       </c>
       <c r="F365">
-        <v>0.47</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7713,7 +7713,7 @@
         <v>139</v>
       </c>
       <c r="F366">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7733,7 +7733,7 @@
         <v>139</v>
       </c>
       <c r="F367">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7753,7 +7753,7 @@
         <v>139</v>
       </c>
       <c r="F368">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -7773,7 +7773,7 @@
         <v>139</v>
       </c>
       <c r="F369">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7793,7 +7793,7 @@
         <v>139</v>
       </c>
       <c r="F370">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7813,7 +7813,7 @@
         <v>26</v>
       </c>
       <c r="F371">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7833,7 +7833,7 @@
         <v>26</v>
       </c>
       <c r="F372">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7853,7 +7853,7 @@
         <v>26</v>
       </c>
       <c r="F373">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -7873,7 +7873,7 @@
         <v>26</v>
       </c>
       <c r="F374">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -7893,7 +7893,7 @@
         <v>26</v>
       </c>
       <c r="F375">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -7913,7 +7913,7 @@
         <v>26</v>
       </c>
       <c r="F376">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -7933,7 +7933,7 @@
         <v>26</v>
       </c>
       <c r="F377">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -7953,7 +7953,7 @@
         <v>26</v>
       </c>
       <c r="F378">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -7973,7 +7973,7 @@
         <v>26</v>
       </c>
       <c r="F379">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -7993,7 +7993,7 @@
         <v>641</v>
       </c>
       <c r="F380">
-        <v>2.74</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8013,7 +8013,7 @@
         <v>76</v>
       </c>
       <c r="F381">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8033,7 +8033,7 @@
         <v>76</v>
       </c>
       <c r="F382">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8053,7 +8053,7 @@
         <v>76</v>
       </c>
       <c r="F383">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8073,7 +8073,7 @@
         <v>76</v>
       </c>
       <c r="F384">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8093,7 +8093,7 @@
         <v>533</v>
       </c>
       <c r="F385">
-        <v>2.26</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8113,7 +8113,7 @@
         <v>533</v>
       </c>
       <c r="F386">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8127,13 +8127,13 @@
         <v>11</v>
       </c>
       <c r="D387">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E387">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F387">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8153,7 +8153,7 @@
         <v>533</v>
       </c>
       <c r="F388">
-        <v>2.27</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8173,7 +8173,7 @@
         <v>5466</v>
       </c>
       <c r="F389">
-        <v>69.39</v>
+        <v>92.79000000000001</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8193,7 +8193,7 @@
         <v>4168</v>
       </c>
       <c r="F390">
-        <v>69.53</v>
+        <v>80.81</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8213,7 +8213,7 @@
         <v>4168</v>
       </c>
       <c r="F391">
-        <v>70.93000000000001</v>
+        <v>104.01</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8233,7 +8233,7 @@
         <v>4168</v>
       </c>
       <c r="F392">
-        <v>73.91</v>
+        <v>93.52</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8253,7 +8253,7 @@
         <v>4030</v>
       </c>
       <c r="F393">
-        <v>73.39</v>
+        <v>98.97</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8273,7 +8273,7 @@
         <v>5386</v>
       </c>
       <c r="F394">
-        <v>69.38</v>
+        <v>98.19</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8293,7 +8293,7 @@
         <v>5386</v>
       </c>
       <c r="F395">
-        <v>76.62</v>
+        <v>102.55</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8307,13 +8307,13 @@
         <v>11</v>
       </c>
       <c r="D396">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E396">
-        <v>4844</v>
+        <v>4749</v>
       </c>
       <c r="F396">
-        <v>70.92</v>
+        <v>105.47</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8333,7 +8333,7 @@
         <v>5209</v>
       </c>
       <c r="F397">
-        <v>68.25</v>
+        <v>94.77</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8353,7 +8353,7 @@
         <v>28</v>
       </c>
       <c r="F398">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8373,7 +8373,7 @@
         <v>16</v>
       </c>
       <c r="F399">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8413,7 +8413,7 @@
         <v>16</v>
       </c>
       <c r="F401">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8433,7 +8433,7 @@
         <v>12</v>
       </c>
       <c r="F402">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8453,7 +8453,7 @@
         <v>25</v>
       </c>
       <c r="F403">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8513,7 +8513,7 @@
         <v>19</v>
       </c>
       <c r="F406">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8533,7 +8533,7 @@
         <v>6752</v>
       </c>
       <c r="F407">
-        <v>166.73</v>
+        <v>181.9</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8553,7 +8553,7 @@
         <v>289</v>
       </c>
       <c r="F408">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8573,7 +8573,7 @@
         <v>289</v>
       </c>
       <c r="F409">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8593,7 +8593,7 @@
         <v>289</v>
       </c>
       <c r="F410">
-        <v>1.73</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8613,7 +8613,7 @@
         <v>115</v>
       </c>
       <c r="F411">
-        <v>0.49</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8633,7 +8633,7 @@
         <v>2451</v>
       </c>
       <c r="F412">
-        <v>46.87</v>
+        <v>50.89</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8653,7 +8653,7 @@
         <v>2451</v>
       </c>
       <c r="F413">
-        <v>43.88</v>
+        <v>52.98</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8670,10 +8670,10 @@
         <v>10</v>
       </c>
       <c r="E414">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="F414">
-        <v>1.25</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8693,7 +8693,7 @@
         <v>1493</v>
       </c>
       <c r="F415">
-        <v>26.12</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8713,7 +8713,7 @@
         <v>192</v>
       </c>
       <c r="F416">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8733,7 +8733,7 @@
         <v>192</v>
       </c>
       <c r="F417">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8753,7 +8753,7 @@
         <v>192</v>
       </c>
       <c r="F418">
-        <v>0.84</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8773,7 +8773,7 @@
         <v>192</v>
       </c>
       <c r="F419">
-        <v>0.87</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8793,7 +8793,7 @@
         <v>192</v>
       </c>
       <c r="F420">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8813,7 +8813,7 @@
         <v>192</v>
       </c>
       <c r="F421">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -8833,7 +8833,7 @@
         <v>192</v>
       </c>
       <c r="F422">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -8853,7 +8853,7 @@
         <v>192</v>
       </c>
       <c r="F423">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -8873,7 +8873,7 @@
         <v>192</v>
       </c>
       <c r="F424">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -8893,7 +8893,7 @@
         <v>124</v>
       </c>
       <c r="F425">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -8913,7 +8913,7 @@
         <v>11</v>
       </c>
       <c r="F426">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -8933,7 +8933,7 @@
         <v>11</v>
       </c>
       <c r="F427">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -8953,7 +8953,7 @@
         <v>11</v>
       </c>
       <c r="F428">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -8973,7 +8973,7 @@
         <v>11</v>
       </c>
       <c r="F429">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -8993,7 +8993,7 @@
         <v>100</v>
       </c>
       <c r="F430">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9013,7 +9013,7 @@
         <v>100</v>
       </c>
       <c r="F431">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9033,7 +9033,7 @@
         <v>11</v>
       </c>
       <c r="F432">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9053,7 +9053,7 @@
         <v>100</v>
       </c>
       <c r="F433">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9073,7 +9073,7 @@
         <v>57</v>
       </c>
       <c r="F434">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9113,7 +9113,7 @@
         <v>15</v>
       </c>
       <c r="F436">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9133,7 +9133,7 @@
         <v>15</v>
       </c>
       <c r="F437">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9193,7 +9193,7 @@
         <v>41</v>
       </c>
       <c r="F440">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -9207,10 +9207,10 @@
         <v>11</v>
       </c>
       <c r="D441">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E441">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F441">
         <v>0.03</v>
@@ -9233,7 +9233,7 @@
         <v>25</v>
       </c>
       <c r="F442">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -9253,7 +9253,7 @@
         <v>4306</v>
       </c>
       <c r="F443">
-        <v>46.77</v>
+        <v>53.81</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -9273,7 +9273,7 @@
         <v>1881</v>
       </c>
       <c r="F444">
-        <v>18.53</v>
+        <v>19.76</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -9293,7 +9293,7 @@
         <v>1881</v>
       </c>
       <c r="F445">
-        <v>16.82</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -9313,7 +9313,7 @@
         <v>1881</v>
       </c>
       <c r="F446">
-        <v>18.49</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -9333,7 +9333,7 @@
         <v>1881</v>
       </c>
       <c r="F447">
-        <v>16.86</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -9353,7 +9353,7 @@
         <v>3474</v>
       </c>
       <c r="F448">
-        <v>34.1</v>
+        <v>72.59</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -9373,7 +9373,7 @@
         <v>3474</v>
       </c>
       <c r="F449">
-        <v>34.47</v>
+        <v>53.12</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -9390,10 +9390,10 @@
         <v>19</v>
       </c>
       <c r="E450">
-        <v>2590</v>
+        <v>2639</v>
       </c>
       <c r="F450">
-        <v>19.9</v>
+        <v>35.92</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -9413,7 +9413,7 @@
         <v>3474</v>
       </c>
       <c r="F451">
-        <v>37.03</v>
+        <v>53.35</v>
       </c>
     </row>
   </sheetData>
